--- a/Common/notes.xlsx
+++ b/Common/notes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phild\source\repos\TT2Advisor\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F3698D5-6354-4626-B6B9-25196303EB40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CA5426-2BCB-470F-9FA2-4DAB35110285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CC16BD3A-4651-4DFF-AA57-E3E0674C8809}"/>
   </bookViews>
@@ -1190,10 +1190,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A78C45F0-C79B-4A22-9831-8C142A13D955}">
-  <dimension ref="A4:AA101"/>
+  <dimension ref="A4:AC101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S6" workbookViewId="0">
-      <selection activeCell="X7" sqref="X7"/>
+    <sheetView tabSelected="1" topLeftCell="Y18" workbookViewId="0">
+      <selection activeCell="AC43" sqref="AC43:AC45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1219,9 +1219,10 @@
     <col min="23" max="23" width="41.44140625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="41.44140625" customWidth="1"/>
     <col min="26" max="26" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="92.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1244,7 +1245,7 @@
         <v>BookofShadows = new BookofShadows(artifacts.BookofShadows);</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1267,7 +1268,7 @@
         <v>ChargedCard = new ChargedCard(artifacts.ChargedCard);</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1389,8 +1390,16 @@
         <f>Z6&amp;" = new "&amp;Z6&amp;"(skillTree."&amp;Z6&amp;");"</f>
         <v>KnightsValor  = new KnightsValor (skillTree.KnightsValor );</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB6" t="str">
+        <f>"public " &amp; Z6 &amp; " " &amp; Z6 &amp; " { get; set; }"</f>
+        <v>public KnightsValor  KnightsValor  { get; set; }</v>
+      </c>
+      <c r="AC6" t="str">
+        <f>"&lt;td&gt;&lt;Skill skill={this.state.skillTree."&amp;LOWER(LEFT(Z6, 1))&amp;RIGHT(Z6, LEN(Z6)-1)&amp;"} /&gt;&lt;/td&gt;"</f>
+        <v>&lt;td&gt;&lt;Skill skill={this.state.skillTree.knightsValor } /&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1512,8 +1521,16 @@
         <f t="shared" ref="AA7:AA45" si="15">Z7&amp;" = new "&amp;Z7&amp;"(skillTree."&amp;Z7&amp;");"</f>
         <v>ChivalricOrder  = new ChivalricOrder (skillTree.ChivalricOrder );</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB7" t="str">
+        <f t="shared" ref="AB7:AB45" si="16">"public " &amp; Z7 &amp; " " &amp; Z7 &amp; " { get; set; }"</f>
+        <v>public ChivalricOrder  ChivalricOrder  { get; set; }</v>
+      </c>
+      <c r="AC7" t="str">
+        <f t="shared" ref="AC7:AC45" si="17">"&lt;td&gt;&lt;Skill skill={this.state.skillTree."&amp;LOWER(LEFT(Z7, 1))&amp;RIGHT(Z7, LEN(Z7)-1)&amp;"} /&gt;&lt;/td&gt;"</f>
+        <v>&lt;td&gt;&lt;Skill skill={this.state.skillTree.chivalricOrder } /&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1617,8 +1634,16 @@
         <f t="shared" si="15"/>
         <v>PetEvolution  = new PetEvolution (skillTree.PetEvolution );</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB8" t="str">
+        <f t="shared" si="16"/>
+        <v>public PetEvolution  PetEvolution  { get; set; }</v>
+      </c>
+      <c r="AC8" t="str">
+        <f t="shared" si="17"/>
+        <v>&lt;td&gt;&lt;Skill skill={this.state.skillTree.petEvolution } /&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1722,8 +1747,16 @@
         <f t="shared" si="15"/>
         <v>HeartofMidas  = new HeartofMidas (skillTree.HeartofMidas );</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB9" t="str">
+        <f t="shared" si="16"/>
+        <v>public HeartofMidas  HeartofMidas  { get; set; }</v>
+      </c>
+      <c r="AC9" t="str">
+        <f t="shared" si="17"/>
+        <v>&lt;td&gt;&lt;Skill skill={this.state.skillTree.heartofMidas } /&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1827,8 +1860,16 @@
         <f t="shared" si="15"/>
         <v>CleavingStrike  = new CleavingStrike (skillTree.CleavingStrike );</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB10" t="str">
+        <f t="shared" si="16"/>
+        <v>public CleavingStrike  CleavingStrike  { get; set; }</v>
+      </c>
+      <c r="AC10" t="str">
+        <f t="shared" si="17"/>
+        <v>&lt;td&gt;&lt;Skill skill={this.state.skillTree.cleavingStrike } /&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1932,8 +1973,16 @@
         <f t="shared" si="15"/>
         <v>SummonInferno  = new SummonInferno (skillTree.SummonInferno );</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB11" t="str">
+        <f t="shared" si="16"/>
+        <v>public SummonInferno  SummonInferno  { get; set; }</v>
+      </c>
+      <c r="AC11" t="str">
+        <f t="shared" si="17"/>
+        <v>&lt;td&gt;&lt;Skill skill={this.state.skillTree.summonInferno } /&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -2037,8 +2086,16 @@
         <f t="shared" si="15"/>
         <v>LightningBurst  = new LightningBurst (skillTree.LightningBurst );</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB12" t="str">
+        <f t="shared" si="16"/>
+        <v>public LightningBurst  LightningBurst  { get; set; }</v>
+      </c>
+      <c r="AC12" t="str">
+        <f t="shared" si="17"/>
+        <v>&lt;td&gt;&lt;Skill skill={this.state.skillTree.lightningBurst } /&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -2142,8 +2199,16 @@
         <f t="shared" si="15"/>
         <v>BarbaricFury  = new BarbaricFury (skillTree.BarbaricFury );</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB13" t="str">
+        <f t="shared" si="16"/>
+        <v>public BarbaricFury  BarbaricFury  { get; set; }</v>
+      </c>
+      <c r="AC13" t="str">
+        <f t="shared" si="17"/>
+        <v>&lt;td&gt;&lt;Skill skill={this.state.skillTree.barbaricFury } /&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -2247,8 +2312,16 @@
         <f t="shared" si="15"/>
         <v>VolcanicSupremacy  = new VolcanicSupremacy (skillTree.VolcanicSupremacy );</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB14" t="str">
+        <f t="shared" si="16"/>
+        <v>public VolcanicSupremacy  VolcanicSupremacy  { get; set; }</v>
+      </c>
+      <c r="AC14" t="str">
+        <f t="shared" si="17"/>
+        <v>&lt;td&gt;&lt;Skill skill={this.state.skillTree.volcanicSupremacy } /&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -2352,8 +2425,16 @@
         <f t="shared" si="15"/>
         <v>FlashZip  = new FlashZip (skillTree.FlashZip );</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB15" t="str">
+        <f t="shared" si="16"/>
+        <v>public FlashZip  FlashZip  { get; set; }</v>
+      </c>
+      <c r="AC15" t="str">
+        <f t="shared" si="17"/>
+        <v>&lt;td&gt;&lt;Skill skill={this.state.skillTree.flashZip } /&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -2457,8 +2538,16 @@
         <f t="shared" si="15"/>
         <v>MasterCommander  = new MasterCommander (skillTree.MasterCommander );</v>
       </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB16" t="str">
+        <f t="shared" si="16"/>
+        <v>public MasterCommander  MasterCommander  { get; set; }</v>
+      </c>
+      <c r="AC16" t="str">
+        <f t="shared" si="17"/>
+        <v>&lt;td&gt;&lt;Skill skill={this.state.skillTree.masterCommander } /&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -2562,8 +2651,16 @@
         <f t="shared" si="15"/>
         <v>SpoilsofWar  = new SpoilsofWar (skillTree.SpoilsofWar );</v>
       </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB17" t="str">
+        <f t="shared" si="16"/>
+        <v>public SpoilsofWar  SpoilsofWar  { get; set; }</v>
+      </c>
+      <c r="AC17" t="str">
+        <f t="shared" si="17"/>
+        <v>&lt;td&gt;&lt;Skill skill={this.state.skillTree.spoilsofWar } /&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -2667,8 +2764,16 @@
         <f t="shared" si="15"/>
         <v>HeroicMight  = new HeroicMight (skillTree.HeroicMight );</v>
       </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB18" t="str">
+        <f t="shared" si="16"/>
+        <v>public HeroicMight  HeroicMight  { get; set; }</v>
+      </c>
+      <c r="AC18" t="str">
+        <f t="shared" si="17"/>
+        <v>&lt;td&gt;&lt;Skill skill={this.state.skillTree.heroicMight } /&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -2772,8 +2877,16 @@
         <f t="shared" si="15"/>
         <v>AerialAssault  = new AerialAssault (skillTree.AerialAssault );</v>
       </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB19" t="str">
+        <f t="shared" si="16"/>
+        <v>public AerialAssault  AerialAssault  { get; set; }</v>
+      </c>
+      <c r="AC19" t="str">
+        <f t="shared" si="17"/>
+        <v>&lt;td&gt;&lt;Skill skill={this.state.skillTree.aerialAssault } /&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -2877,8 +2990,16 @@
         <f t="shared" si="15"/>
         <v>TacticalInsight  = new TacticalInsight (skillTree.TacticalInsight );</v>
       </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB20" t="str">
+        <f t="shared" si="16"/>
+        <v>public TacticalInsight  TacticalInsight  { get; set; }</v>
+      </c>
+      <c r="AC20" t="str">
+        <f t="shared" si="17"/>
+        <v>&lt;td&gt;&lt;Skill skill={this.state.skillTree.tacticalInsight } /&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -2982,8 +3103,16 @@
         <f t="shared" si="15"/>
         <v>SearingLight  = new SearingLight (skillTree.SearingLight );</v>
       </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB21" t="str">
+        <f t="shared" si="16"/>
+        <v>public SearingLight  SearingLight  { get; set; }</v>
+      </c>
+      <c r="AC21" t="str">
+        <f t="shared" si="17"/>
+        <v>&lt;td&gt;&lt;Skill skill={this.state.skillTree.searingLight } /&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -3087,8 +3216,16 @@
         <f t="shared" si="15"/>
         <v>CoordinatedOffensive  = new CoordinatedOffensive (skillTree.CoordinatedOffensive );</v>
       </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB22" t="str">
+        <f t="shared" si="16"/>
+        <v>public CoordinatedOffensive  CoordinatedOffensive  { get; set; }</v>
+      </c>
+      <c r="AC22" t="str">
+        <f t="shared" si="17"/>
+        <v>&lt;td&gt;&lt;Skill skill={this.state.skillTree.coordinatedOffensive } /&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -3192,8 +3329,16 @@
         <f t="shared" si="15"/>
         <v>AstralAwakening  = new AstralAwakening (skillTree.AstralAwakening );</v>
       </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB23" t="str">
+        <f t="shared" si="16"/>
+        <v>public AstralAwakening  AstralAwakening  { get; set; }</v>
+      </c>
+      <c r="AC23" t="str">
+        <f t="shared" si="17"/>
+        <v>&lt;td&gt;&lt;Skill skill={this.state.skillTree.astralAwakening } /&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -3297,8 +3442,16 @@
         <f t="shared" si="15"/>
         <v>CommandSupremacy  = new CommandSupremacy (skillTree.CommandSupremacy );</v>
       </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB24" t="str">
+        <f t="shared" si="16"/>
+        <v>public CommandSupremacy  CommandSupremacy  { get; set; }</v>
+      </c>
+      <c r="AC24" t="str">
+        <f t="shared" si="17"/>
+        <v>&lt;td&gt;&lt;Skill skill={this.state.skillTree.commandSupremacy } /&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -3402,8 +3555,16 @@
         <f t="shared" si="15"/>
         <v>AnchoringShot  = new AnchoringShot (skillTree.AnchoringShot );</v>
       </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB25" t="str">
+        <f t="shared" si="16"/>
+        <v>public AnchoringShot  AnchoringShot  { get; set; }</v>
+      </c>
+      <c r="AC25" t="str">
+        <f t="shared" si="17"/>
+        <v>&lt;td&gt;&lt;Skill skill={this.state.skillTree.anchoringShot } /&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -3507,8 +3668,16 @@
         <f t="shared" si="15"/>
         <v>LimitBreak  = new LimitBreak (skillTree.LimitBreak );</v>
       </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB26" t="str">
+        <f t="shared" si="16"/>
+        <v>public LimitBreak  LimitBreak  { get; set; }</v>
+      </c>
+      <c r="AC26" t="str">
+        <f t="shared" si="17"/>
+        <v>&lt;td&gt;&lt;Skill skill={this.state.skillTree.limitBreak } /&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -3612,8 +3781,16 @@
         <f t="shared" si="15"/>
         <v>MidasUltimate  = new MidasUltimate (skillTree.MidasUltimate );</v>
       </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB27" t="str">
+        <f t="shared" si="16"/>
+        <v>public MidasUltimate  MidasUltimate  { get; set; }</v>
+      </c>
+      <c r="AC27" t="str">
+        <f t="shared" si="17"/>
+        <v>&lt;td&gt;&lt;Skill skill={this.state.skillTree.midasUltimate } /&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -3717,8 +3894,16 @@
         <f t="shared" si="15"/>
         <v>AngelicRadiance  = new AngelicRadiance (skillTree.AngelicRadiance );</v>
       </c>
-    </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB28" t="str">
+        <f t="shared" si="16"/>
+        <v>public AngelicRadiance  AngelicRadiance  { get; set; }</v>
+      </c>
+      <c r="AC28" t="str">
+        <f t="shared" si="17"/>
+        <v>&lt;td&gt;&lt;Skill skill={this.state.skillTree.angelicRadiance } /&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -3822,8 +4007,16 @@
         <f t="shared" si="15"/>
         <v>PhantomVengeance  = new PhantomVengeance (skillTree.PhantomVengeance );</v>
       </c>
-    </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB29" t="str">
+        <f t="shared" si="16"/>
+        <v>public PhantomVengeance  PhantomVengeance  { get; set; }</v>
+      </c>
+      <c r="AC29" t="str">
+        <f t="shared" si="17"/>
+        <v>&lt;td&gt;&lt;Skill skill={this.state.skillTree.phantomVengeance } /&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -3927,8 +4120,16 @@
         <f t="shared" si="15"/>
         <v>FairyCharm  = new FairyCharm (skillTree.FairyCharm );</v>
       </c>
-    </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB30" t="str">
+        <f t="shared" si="16"/>
+        <v>public FairyCharm  FairyCharm  { get; set; }</v>
+      </c>
+      <c r="AC30" t="str">
+        <f t="shared" si="17"/>
+        <v>&lt;td&gt;&lt;Skill skill={this.state.skillTree.fairyCharm } /&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -4032,8 +4233,16 @@
         <f t="shared" si="15"/>
         <v>ManaSiphon  = new ManaSiphon (skillTree.ManaSiphon );</v>
       </c>
-    </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB31" t="str">
+        <f t="shared" si="16"/>
+        <v>public ManaSiphon  ManaSiphon  { get; set; }</v>
+      </c>
+      <c r="AC31" t="str">
+        <f t="shared" si="17"/>
+        <v>&lt;td&gt;&lt;Skill skill={this.state.skillTree.manaSiphon } /&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -4137,8 +4346,16 @@
         <f t="shared" si="15"/>
         <v>EternalDarkness  = new EternalDarkness (skillTree.EternalDarkness );</v>
       </c>
-    </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB32" t="str">
+        <f t="shared" si="16"/>
+        <v>public EternalDarkness  EternalDarkness  { get; set; }</v>
+      </c>
+      <c r="AC32" t="str">
+        <f t="shared" si="17"/>
+        <v>&lt;td&gt;&lt;Skill skill={this.state.skillTree.eternalDarkness } /&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>0</v>
       </c>
@@ -4242,8 +4459,16 @@
         <f t="shared" si="15"/>
         <v>ManniMana  = new ManniMana (skillTree.ManniMana );</v>
       </c>
-    </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB33" t="str">
+        <f t="shared" si="16"/>
+        <v>public ManniMana  ManniMana  { get; set; }</v>
+      </c>
+      <c r="AC33" t="str">
+        <f t="shared" si="17"/>
+        <v>&lt;td&gt;&lt;Skill skill={this.state.skillTree.manniMana } /&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -4347,8 +4572,16 @@
         <f t="shared" si="15"/>
         <v>LightningStrike  = new LightningStrike (skillTree.LightningStrike );</v>
       </c>
-    </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB34" t="str">
+        <f t="shared" si="16"/>
+        <v>public LightningStrike  LightningStrike  { get; set; }</v>
+      </c>
+      <c r="AC34" t="str">
+        <f t="shared" si="17"/>
+        <v>&lt;td&gt;&lt;Skill skill={this.state.skillTree.lightningStrike } /&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -4423,8 +4656,16 @@
         <f t="shared" si="15"/>
         <v>DimensionalShift  = new DimensionalShift (skillTree.DimensionalShift );</v>
       </c>
-    </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB35" t="str">
+        <f t="shared" si="16"/>
+        <v>public DimensionalShift  DimensionalShift  { get; set; }</v>
+      </c>
+      <c r="AC35" t="str">
+        <f t="shared" si="17"/>
+        <v>&lt;td&gt;&lt;Skill skill={this.state.skillTree.dimensionalShift } /&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -4468,8 +4709,16 @@
         <f t="shared" si="15"/>
         <v>MasterThief  = new MasterThief (skillTree.MasterThief );</v>
       </c>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB36" t="str">
+        <f t="shared" si="16"/>
+        <v>public MasterThief  MasterThief  { get; set; }</v>
+      </c>
+      <c r="AC36" t="str">
+        <f t="shared" si="17"/>
+        <v>&lt;td&gt;&lt;Skill skill={this.state.skillTree.masterThief } /&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -4513,8 +4762,16 @@
         <f t="shared" si="15"/>
         <v>Ambush  = new Ambush (skillTree.Ambush );</v>
       </c>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB37" t="str">
+        <f t="shared" si="16"/>
+        <v>public Ambush  Ambush  { get; set; }</v>
+      </c>
+      <c r="AC37" t="str">
+        <f t="shared" si="17"/>
+        <v>&lt;td&gt;&lt;Skill skill={this.state.skillTree.ambush } /&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -4558,8 +4815,16 @@
         <f t="shared" si="15"/>
         <v>Assassinate  = new Assassinate (skillTree.Assassinate );</v>
       </c>
-    </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB38" t="str">
+        <f t="shared" si="16"/>
+        <v>public Assassinate  Assassinate  { get; set; }</v>
+      </c>
+      <c r="AC38" t="str">
+        <f t="shared" si="17"/>
+        <v>&lt;td&gt;&lt;Skill skill={this.state.skillTree.assassinate } /&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -4603,8 +4868,16 @@
         <f t="shared" si="15"/>
         <v>SummonDagger  = new SummonDagger (skillTree.SummonDagger );</v>
       </c>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB39" t="str">
+        <f t="shared" si="16"/>
+        <v>public SummonDagger  SummonDagger  { get; set; }</v>
+      </c>
+      <c r="AC39" t="str">
+        <f t="shared" si="17"/>
+        <v>&lt;td&gt;&lt;Skill skill={this.state.skillTree.summonDagger } /&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -4648,8 +4921,16 @@
         <f t="shared" si="15"/>
         <v>StrokeOfLuck  = new StrokeOfLuck (skillTree.StrokeOfLuck );</v>
       </c>
-    </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB40" t="str">
+        <f t="shared" si="16"/>
+        <v>public StrokeOfLuck  StrokeOfLuck  { get; set; }</v>
+      </c>
+      <c r="AC40" t="str">
+        <f t="shared" si="17"/>
+        <v>&lt;td&gt;&lt;Skill skill={this.state.skillTree.strokeOfLuck } /&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -4693,8 +4974,16 @@
         <f t="shared" si="15"/>
         <v>DaggerStorm  = new DaggerStorm (skillTree.DaggerStorm );</v>
       </c>
-    </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB41" t="str">
+        <f t="shared" si="16"/>
+        <v>public DaggerStorm  DaggerStorm  { get; set; }</v>
+      </c>
+      <c r="AC41" t="str">
+        <f t="shared" si="17"/>
+        <v>&lt;td&gt;&lt;Skill skill={this.state.skillTree.daggerStorm } /&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -4738,8 +5027,16 @@
         <f t="shared" si="15"/>
         <v>Cloaking  = new Cloaking (skillTree.Cloaking );</v>
       </c>
-    </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB42" t="str">
+        <f t="shared" si="16"/>
+        <v>public Cloaking  Cloaking  { get; set; }</v>
+      </c>
+      <c r="AC42" t="str">
+        <f t="shared" si="17"/>
+        <v>&lt;td&gt;&lt;Skill skill={this.state.skillTree.cloaking } /&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -4783,8 +5080,16 @@
         <f t="shared" si="15"/>
         <v>ForbiddenContract  = new ForbiddenContract (skillTree.ForbiddenContract );</v>
       </c>
-    </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB43" t="str">
+        <f t="shared" si="16"/>
+        <v>public ForbiddenContract  ForbiddenContract  { get; set; }</v>
+      </c>
+      <c r="AC43" t="str">
+        <f t="shared" si="17"/>
+        <v>&lt;td&gt;&lt;Skill skill={this.state.skillTree.forbiddenContract } /&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -4828,8 +5133,16 @@
         <f t="shared" si="15"/>
         <v>PoisonEdge  = new PoisonEdge (skillTree.PoisonEdge );</v>
       </c>
-    </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB44" t="str">
+        <f t="shared" si="16"/>
+        <v>public PoisonEdge  PoisonEdge  { get; set; }</v>
+      </c>
+      <c r="AC44" t="str">
+        <f t="shared" si="17"/>
+        <v>&lt;td&gt;&lt;Skill skill={this.state.skillTree.poisonEdge } /&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -4873,8 +5186,16 @@
         <f t="shared" si="15"/>
         <v>DeadlyFocus  = new DeadlyFocus (skillTree.DeadlyFocus );</v>
       </c>
-    </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AB45" t="str">
+        <f t="shared" si="16"/>
+        <v>public DeadlyFocus  DeadlyFocus  { get; set; }</v>
+      </c>
+      <c r="AC45" t="str">
+        <f t="shared" si="17"/>
+        <v>&lt;td&gt;&lt;Skill skill={this.state.skillTree.deadlyFocus } /&gt;&lt;/td&gt;</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -4912,7 +5233,7 @@
         <v>if (equipmentSets.Contains("BoneMender")) BoneMender = new BoneMender();</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -4950,7 +5271,7 @@
         <v>if (equipmentSets.Contains("CelestialEnchanter")) CelestialEnchanter = new CelestialEnchanter();</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -5753,7 +6074,7 @@
         <v>0</v>
       </c>
       <c r="B69" t="str">
-        <f t="shared" ref="B69:B101" si="16">C69</f>
+        <f t="shared" ref="B69:B101" si="18">C69</f>
         <v>GlacialAxe</v>
       </c>
       <c r="C69" t="s">
@@ -5763,11 +6084,11 @@
         <v>2</v>
       </c>
       <c r="E69" t="str">
-        <f t="shared" ref="E69:E101" si="17">_xlfn.CONCAT(A69&amp;" "&amp;B69&amp;" "&amp;C69&amp;" "&amp;D69&amp;";")</f>
+        <f t="shared" ref="E69:E101" si="19">_xlfn.CONCAT(A69&amp;" "&amp;B69&amp;" "&amp;C69&amp;" "&amp;D69&amp;";")</f>
         <v xml:space="preserve">        public GlacialAxe GlacialAxe { get; set; };</v>
       </c>
       <c r="F69" t="str">
-        <f t="shared" ref="F69:F101" si="18">C69&amp;" = new "&amp;C69&amp;"(artifacts."&amp;C69&amp;");"</f>
+        <f t="shared" ref="F69:F101" si="20">C69&amp;" = new "&amp;C69&amp;"(artifacts."&amp;C69&amp;");"</f>
         <v>GlacialAxe = new GlacialAxe(artifacts.GlacialAxe);</v>
       </c>
       <c r="O69" t="s">
@@ -5791,7 +6112,7 @@
         <v>0</v>
       </c>
       <c r="B70" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>Aegis</v>
       </c>
       <c r="C70" t="s">
@@ -5801,11 +6122,11 @@
         <v>2</v>
       </c>
       <c r="E70" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">        public Aegis Aegis { get; set; };</v>
       </c>
       <c r="F70" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>Aegis = new Aegis(artifacts.Aegis);</v>
       </c>
       <c r="O70" t="s">
@@ -5829,7 +6150,7 @@
         <v>0</v>
       </c>
       <c r="B71" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>SwampGauntlet</v>
       </c>
       <c r="C71" t="s">
@@ -5839,26 +6160,26 @@
         <v>2</v>
       </c>
       <c r="E71" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">        public SwampGauntlet SwampGauntlet { get; set; };</v>
       </c>
       <c r="F71" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>SwampGauntlet = new SwampGauntlet(artifacts.SwampGauntlet);</v>
       </c>
       <c r="O71" t="s">
         <v>194</v>
       </c>
       <c r="P71" t="str">
-        <f t="shared" ref="P71:P74" si="19">TRIM(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O71, """", ""), ",", ""), " ", ""))</f>
+        <f t="shared" ref="P71:P74" si="21">TRIM(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(O71, """", ""), ",", ""), " ", ""))</f>
         <v>ForsakenBattlemage</v>
       </c>
       <c r="Q71" t="str">
-        <f t="shared" ref="Q71:Q74" si="20">"public "&amp;P71&amp;" "&amp;P71&amp;" { get; set; }"</f>
+        <f t="shared" ref="Q71:Q74" si="22">"public "&amp;P71&amp;" "&amp;P71&amp;" { get; set; }"</f>
         <v>public ForsakenBattlemage ForsakenBattlemage { get; set; }</v>
       </c>
       <c r="R71" t="str">
-        <f t="shared" ref="R71:R74" si="21">"if (equipmentSets.Contains("""&amp;P71&amp;""")) "&amp;P71&amp;" = new "&amp;P71&amp;"();"</f>
+        <f t="shared" ref="R71:R74" si="23">"if (equipmentSets.Contains("""&amp;P71&amp;""")) "&amp;P71&amp;" = new "&amp;P71&amp;"();"</f>
         <v>if (equipmentSets.Contains("ForsakenBattlemage")) ForsakenBattlemage = new ForsakenBattlemage();</v>
       </c>
     </row>
@@ -5867,7 +6188,7 @@
         <v>0</v>
       </c>
       <c r="B72" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>InfinityPendulum</v>
       </c>
       <c r="C72" t="s">
@@ -5877,26 +6198,26 @@
         <v>2</v>
       </c>
       <c r="E72" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">        public InfinityPendulum InfinityPendulum { get; set; };</v>
       </c>
       <c r="F72" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>InfinityPendulum = new InfinityPendulum(artifacts.InfinityPendulum);</v>
       </c>
       <c r="O72" t="s">
         <v>195</v>
       </c>
       <c r="P72" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>InspiringCaptain</v>
       </c>
       <c r="Q72" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>public InspiringCaptain InspiringCaptain { get; set; }</v>
       </c>
       <c r="R72" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>if (equipmentSets.Contains("InspiringCaptain")) InspiringCaptain = new InspiringCaptain();</v>
       </c>
     </row>
@@ -5905,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="B73" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>GloveofKuma</v>
       </c>
       <c r="C73" t="s">
@@ -5915,26 +6236,26 @@
         <v>2</v>
       </c>
       <c r="E73" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">        public GloveofKuma GloveofKuma { get; set; };</v>
       </c>
       <c r="F73" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>GloveofKuma = new GloveofKuma(artifacts.GloveofKuma);</v>
       </c>
       <c r="O73" t="s">
         <v>196</v>
       </c>
       <c r="P73" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>CutthroatRazorfist</v>
       </c>
       <c r="Q73" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>public CutthroatRazorfist CutthroatRazorfist { get; set; }</v>
       </c>
       <c r="R73" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>if (equipmentSets.Contains("CutthroatRazorfist")) CutthroatRazorfist = new CutthroatRazorfist();</v>
       </c>
     </row>
@@ -5943,7 +6264,7 @@
         <v>0</v>
       </c>
       <c r="B74" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>TitanSpear</v>
       </c>
       <c r="C74" t="s">
@@ -5953,26 +6274,26 @@
         <v>2</v>
       </c>
       <c r="E74" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">        public TitanSpear TitanSpear { get; set; };</v>
       </c>
       <c r="F74" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>TitanSpear = new TitanSpear(artifacts.TitanSpear);</v>
       </c>
       <c r="O74" t="s">
         <v>197</v>
       </c>
       <c r="P74" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>RockQueen</v>
       </c>
       <c r="Q74" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>public RockQueen RockQueen { get; set; }</v>
       </c>
       <c r="R74" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>if (equipmentSets.Contains("RockQueen")) RockQueen = new RockQueen();</v>
       </c>
     </row>
@@ -5981,7 +6302,7 @@
         <v>0</v>
       </c>
       <c r="B75" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>OakStaff</v>
       </c>
       <c r="C75" t="s">
@@ -5991,11 +6312,11 @@
         <v>2</v>
       </c>
       <c r="E75" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">        public OakStaff OakStaff { get; set; };</v>
       </c>
       <c r="F75" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>OakStaff = new OakStaff(artifacts.OakStaff);</v>
       </c>
     </row>
@@ -6004,7 +6325,7 @@
         <v>0</v>
       </c>
       <c r="B76" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>TheArcanaCloak</v>
       </c>
       <c r="C76" t="s">
@@ -6014,11 +6335,11 @@
         <v>2</v>
       </c>
       <c r="E76" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">        public TheArcanaCloak TheArcanaCloak { get; set; };</v>
       </c>
       <c r="F76" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>TheArcanaCloak = new TheArcanaCloak(artifacts.TheArcanaCloak);</v>
       </c>
     </row>
@@ -6027,7 +6348,7 @@
         <v>0</v>
       </c>
       <c r="B77" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>HuntersOintment</v>
       </c>
       <c r="C77" t="s">
@@ -6037,11 +6358,11 @@
         <v>2</v>
       </c>
       <c r="E77" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">        public HuntersOintment HuntersOintment { get; set; };</v>
       </c>
       <c r="F77" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>HuntersOintment = new HuntersOintment(artifacts.HuntersOintment);</v>
       </c>
     </row>
@@ -6050,7 +6371,7 @@
         <v>0</v>
       </c>
       <c r="B78" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>AmbrosiaElixir</v>
       </c>
       <c r="C78" t="s">
@@ -6060,11 +6381,11 @@
         <v>2</v>
       </c>
       <c r="E78" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">        public AmbrosiaElixir AmbrosiaElixir { get; set; };</v>
       </c>
       <c r="F78" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>AmbrosiaElixir = new AmbrosiaElixir(artifacts.AmbrosiaElixir);</v>
       </c>
     </row>
@@ -6073,7 +6394,7 @@
         <v>0</v>
       </c>
       <c r="B79" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>MysticStaff</v>
       </c>
       <c r="C79" t="s">
@@ -6083,11 +6404,11 @@
         <v>2</v>
       </c>
       <c r="E79" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">        public MysticStaff MysticStaff { get; set; };</v>
       </c>
       <c r="F79" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>MysticStaff = new MysticStaff(artifacts.MysticStaff);</v>
       </c>
     </row>
@@ -6096,7 +6417,7 @@
         <v>0</v>
       </c>
       <c r="B80" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>MysticalBeansofSenzu</v>
       </c>
       <c r="C80" t="s">
@@ -6106,11 +6427,11 @@
         <v>2</v>
       </c>
       <c r="E80" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">        public MysticalBeansofSenzu MysticalBeansofSenzu { get; set; };</v>
       </c>
       <c r="F80" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>MysticalBeansofSenzu = new MysticalBeansofSenzu(artifacts.MysticalBeansofSenzu);</v>
       </c>
     </row>
@@ -6119,7 +6440,7 @@
         <v>0</v>
       </c>
       <c r="B81" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>EggofFortune</v>
       </c>
       <c r="C81" t="s">
@@ -6129,11 +6450,11 @@
         <v>2</v>
       </c>
       <c r="E81" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">        public EggofFortune EggofFortune { get; set; };</v>
       </c>
       <c r="F81" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>EggofFortune = new EggofFortune(artifacts.EggofFortune);</v>
       </c>
     </row>
@@ -6142,7 +6463,7 @@
         <v>0</v>
       </c>
       <c r="B82" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>DivineChalice</v>
       </c>
       <c r="C82" t="s">
@@ -6152,11 +6473,11 @@
         <v>2</v>
       </c>
       <c r="E82" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">        public DivineChalice DivineChalice { get; set; };</v>
       </c>
       <c r="F82" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>DivineChalice = new DivineChalice(artifacts.DivineChalice);</v>
       </c>
     </row>
@@ -6165,7 +6486,7 @@
         <v>0</v>
       </c>
       <c r="B83" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>InvadersShield</v>
       </c>
       <c r="C83" t="s">
@@ -6175,11 +6496,11 @@
         <v>2</v>
       </c>
       <c r="E83" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">        public InvadersShield InvadersShield { get; set; };</v>
       </c>
       <c r="F83" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>InvadersShield = new InvadersShield(artifacts.InvadersShield);</v>
       </c>
     </row>
@@ -6188,7 +6509,7 @@
         <v>0</v>
       </c>
       <c r="B84" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>AxeofMuerte</v>
       </c>
       <c r="C84" t="s">
@@ -6198,11 +6519,11 @@
         <v>2</v>
       </c>
       <c r="E84" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">        public AxeofMuerte AxeofMuerte { get; set; };</v>
       </c>
       <c r="F84" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>AxeofMuerte = new AxeofMuerte(artifacts.AxeofMuerte);</v>
       </c>
     </row>
@@ -6211,7 +6532,7 @@
         <v>0</v>
       </c>
       <c r="B85" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>EssenceoftheKitsune</v>
       </c>
       <c r="C85" t="s">
@@ -6221,11 +6542,11 @@
         <v>2</v>
       </c>
       <c r="E85" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">        public EssenceoftheKitsune EssenceoftheKitsune { get; set; };</v>
       </c>
       <c r="F85" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>EssenceoftheKitsune = new EssenceoftheKitsune(artifacts.EssenceoftheKitsune);</v>
       </c>
     </row>
@@ -6234,7 +6555,7 @@
         <v>0</v>
       </c>
       <c r="B86" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>BootsofHermes</v>
       </c>
       <c r="C86" t="s">
@@ -6244,11 +6565,11 @@
         <v>2</v>
       </c>
       <c r="E86" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">        public BootsofHermes BootsofHermes { get; set; };</v>
       </c>
       <c r="F86" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>BootsofHermes = new BootsofHermes(artifacts.BootsofHermes);</v>
       </c>
     </row>
@@ -6257,7 +6578,7 @@
         <v>0</v>
       </c>
       <c r="B87" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>UnboundGauntlet</v>
       </c>
       <c r="C87" t="s">
@@ -6267,11 +6588,11 @@
         <v>2</v>
       </c>
       <c r="E87" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">        public UnboundGauntlet UnboundGauntlet { get; set; };</v>
       </c>
       <c r="F87" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>UnboundGauntlet = new UnboundGauntlet(artifacts.UnboundGauntlet);</v>
       </c>
     </row>
@@ -6280,7 +6601,7 @@
         <v>0</v>
       </c>
       <c r="B88" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>OberonPendant</v>
       </c>
       <c r="C88" t="s">
@@ -6290,11 +6611,11 @@
         <v>2</v>
       </c>
       <c r="E88" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">        public OberonPendant OberonPendant { get; set; };</v>
       </c>
       <c r="F88" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>OberonPendant = new OberonPendant(artifacts.OberonPendant);</v>
       </c>
     </row>
@@ -6303,7 +6624,7 @@
         <v>0</v>
       </c>
       <c r="B89" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>LuckyFootofAlmiraj</v>
       </c>
       <c r="C89" t="s">
@@ -6313,11 +6634,11 @@
         <v>2</v>
       </c>
       <c r="E89" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">        public LuckyFootofAlmiraj LuckyFootofAlmiraj { get; set; };</v>
       </c>
       <c r="F89" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>LuckyFootofAlmiraj = new LuckyFootofAlmiraj(artifacts.LuckyFootofAlmiraj);</v>
       </c>
     </row>
@@ -6326,7 +6647,7 @@
         <v>0</v>
       </c>
       <c r="B90" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>LostKingsMask</v>
       </c>
       <c r="C90" t="s">
@@ -6336,11 +6657,11 @@
         <v>2</v>
       </c>
       <c r="E90" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">        public LostKingsMask LostKingsMask { get; set; };</v>
       </c>
       <c r="F90" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>LostKingsMask = new LostKingsMask(artifacts.LostKingsMask);</v>
       </c>
     </row>
@@ -6349,7 +6670,7 @@
         <v>0</v>
       </c>
       <c r="B91" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>StaffofRadiance</v>
       </c>
       <c r="C91" t="s">
@@ -6359,11 +6680,11 @@
         <v>2</v>
       </c>
       <c r="E91" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">        public StaffofRadiance StaffofRadiance { get; set; };</v>
       </c>
       <c r="F91" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>StaffofRadiance = new StaffofRadiance(artifacts.StaffofRadiance);</v>
       </c>
     </row>
@@ -6372,7 +6693,7 @@
         <v>0</v>
       </c>
       <c r="B92" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>MorgelaiSword</v>
       </c>
       <c r="C92" t="s">
@@ -6382,11 +6703,11 @@
         <v>2</v>
       </c>
       <c r="E92" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">        public MorgelaiSword MorgelaiSword { get; set; };</v>
       </c>
       <c r="F92" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>MorgelaiSword = new MorgelaiSword(artifacts.MorgelaiSword);</v>
       </c>
     </row>
@@ -6395,7 +6716,7 @@
         <v>0</v>
       </c>
       <c r="B93" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>RingingStone</v>
       </c>
       <c r="C93" t="s">
@@ -6405,11 +6726,11 @@
         <v>2</v>
       </c>
       <c r="E93" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">        public RingingStone RingingStone { get; set; };</v>
       </c>
       <c r="F93" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>RingingStone = new RingingStone(artifacts.RingingStone);</v>
       </c>
     </row>
@@ -6418,7 +6739,7 @@
         <v>0</v>
       </c>
       <c r="B94" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>QuillofScrolls</v>
       </c>
       <c r="C94" t="s">
@@ -6428,11 +6749,11 @@
         <v>2</v>
       </c>
       <c r="E94" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">        public QuillofScrolls QuillofScrolls { get; set; };</v>
       </c>
       <c r="F94" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>QuillofScrolls = new QuillofScrolls(artifacts.QuillofScrolls);</v>
       </c>
     </row>
@@ -6441,7 +6762,7 @@
         <v>0</v>
       </c>
       <c r="B95" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>OldKingsStamp</v>
       </c>
       <c r="C95" t="s">
@@ -6451,11 +6772,11 @@
         <v>2</v>
       </c>
       <c r="E95" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">        public OldKingsStamp OldKingsStamp { get; set; };</v>
       </c>
       <c r="F95" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>OldKingsStamp = new OldKingsStamp(artifacts.OldKingsStamp);</v>
       </c>
     </row>
@@ -6464,7 +6785,7 @@
         <v>0</v>
       </c>
       <c r="B96" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>TheMastersSword</v>
       </c>
       <c r="C96" t="s">
@@ -6474,11 +6795,11 @@
         <v>2</v>
       </c>
       <c r="E96" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">        public TheMastersSword TheMastersSword { get; set; };</v>
       </c>
       <c r="F96" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>TheMastersSword = new TheMastersSword(artifacts.TheMastersSword);</v>
       </c>
     </row>
@@ -6487,7 +6808,7 @@
         <v>0</v>
       </c>
       <c r="B97" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>TheMagnifier</v>
       </c>
       <c r="C97" t="s">
@@ -6497,11 +6818,11 @@
         <v>2</v>
       </c>
       <c r="E97" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">        public TheMagnifier TheMagnifier { get; set; };</v>
       </c>
       <c r="F97" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>TheMagnifier = new TheMagnifier(artifacts.TheMagnifier);</v>
       </c>
     </row>
@@ -6510,7 +6831,7 @@
         <v>0</v>
       </c>
       <c r="B98" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>TheTreasureofFergus</v>
       </c>
       <c r="C98" t="s">
@@ -6520,11 +6841,11 @@
         <v>2</v>
       </c>
       <c r="E98" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">        public TheTreasureofFergus TheTreasureofFergus { get; set; };</v>
       </c>
       <c r="F98" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>TheTreasureofFergus = new TheTreasureofFergus(artifacts.TheTreasureofFergus);</v>
       </c>
     </row>
@@ -6533,7 +6854,7 @@
         <v>0</v>
       </c>
       <c r="B99" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>TheWhiteDwarf</v>
       </c>
       <c r="C99" t="s">
@@ -6543,11 +6864,11 @@
         <v>2</v>
       </c>
       <c r="E99" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">        public TheWhiteDwarf TheWhiteDwarf { get; set; };</v>
       </c>
       <c r="F99" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>TheWhiteDwarf = new TheWhiteDwarf(artifacts.TheWhiteDwarf);</v>
       </c>
     </row>
@@ -6556,7 +6877,7 @@
         <v>0</v>
       </c>
       <c r="B100" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>AramSpear</v>
       </c>
       <c r="C100" t="s">
@@ -6566,11 +6887,11 @@
         <v>2</v>
       </c>
       <c r="E100" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">        public AramSpear AramSpear { get; set; };</v>
       </c>
       <c r="F100" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>AramSpear = new AramSpear(artifacts.AramSpear);</v>
       </c>
     </row>
@@ -6579,7 +6900,7 @@
         <v>0</v>
       </c>
       <c r="B101" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>WardoftheDarkness</v>
       </c>
       <c r="C101" t="s">
@@ -6589,11 +6910,11 @@
         <v>2</v>
       </c>
       <c r="E101" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v xml:space="preserve">        public WardoftheDarkness WardoftheDarkness { get; set; };</v>
       </c>
       <c r="F101" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>WardoftheDarkness = new WardoftheDarkness(artifacts.WardoftheDarkness);</v>
       </c>
     </row>
